--- a/bases/IPC.xlsx
+++ b/bases/IPC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC916DCC-B956-4252-931F-85688072521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243AB09F-67F0-4ED3-B0C4-DECF9088CC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,29 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Año(aaaa)-Mes(mm)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Inflación total</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.9499999999999993"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
+    <t>Índice</t>
+  </si>
+  <si>
+    <t>Inflación anual %</t>
+  </si>
+  <si>
+    <t>Inflación mensual %</t>
+  </si>
+  <si>
+    <t>Inflación año corrido %</t>
   </si>
 </sst>
 </file>
@@ -47,7 +39,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="####\-##"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,18 +47,12 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.9499999999999993"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -94,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,17 +112,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF979991"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF979991"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF979991"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF979991"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -148,6 +155,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -168,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,9 +221,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,26 +256,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,26 +291,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,2087 +467,4849 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="7" width="0.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>200001</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C2" s="6">
         <v>8.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="D2" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>200002</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
+        <v>41.23</v>
+      </c>
+      <c r="C3" s="8">
         <v>8.89</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D3" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>200003</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
+        <v>41.93</v>
+      </c>
+      <c r="C4" s="6">
         <v>9.73</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="D4" s="6">
+        <v>1.71</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>200004</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
+        <v>42.35</v>
+      </c>
+      <c r="C5" s="8">
         <v>9.9600000000000009</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>200005</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
+        <v>42.57</v>
+      </c>
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="D6" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>200006</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
+        <v>42.56</v>
+      </c>
+      <c r="C7" s="8">
         <v>9.68</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D7" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="E7" s="9">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>200007</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
+        <v>42.55</v>
+      </c>
+      <c r="C8" s="6">
         <v>9.2899999999999991</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="D8" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="E8" s="10">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>200008</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
+        <v>42.68</v>
+      </c>
+      <c r="C9" s="8">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>200009</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
+        <v>42.86</v>
+      </c>
+      <c r="C10" s="6">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="D10" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E10" s="10">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>200010</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
+        <v>42.93</v>
+      </c>
+      <c r="C11" s="8">
         <v>8.99</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="D11" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="9">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>200011</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
+        <v>43.07</v>
+      </c>
+      <c r="C12" s="6">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="D12" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>200012</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
+        <v>43.27</v>
+      </c>
+      <c r="C13" s="8">
         <v>8.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="D13" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="E13" s="9">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>200101</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
+        <v>43.72</v>
+      </c>
+      <c r="C14" s="6">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="D14" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>200102</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
+        <v>44.55</v>
+      </c>
+      <c r="C15" s="8">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="D15" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>200103</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
+        <v>45.21</v>
+      </c>
+      <c r="C16" s="6">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="D16" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>200104</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
+        <v>45.73</v>
+      </c>
+      <c r="C17" s="8">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="D17" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>200105</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
+        <v>45.92</v>
+      </c>
+      <c r="C18" s="6">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="D18" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="E18" s="10">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>200106</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
+        <v>45.94</v>
+      </c>
+      <c r="C19" s="8">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E19" s="9">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>200107</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="6">
+        <v>45.99</v>
+      </c>
+      <c r="C20" s="6">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="D20" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E20" s="10">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>200108</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
+        <v>46.11</v>
+      </c>
+      <c r="C21" s="8">
         <v>8.0299999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>200109</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
+        <v>46.28</v>
+      </c>
+      <c r="C22" s="6">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="D22" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>200110</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="8">
+        <v>46.37</v>
+      </c>
+      <c r="C23" s="8">
         <v>8.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="D23" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="E23" s="9">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>200111</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
+        <v>46.42</v>
+      </c>
+      <c r="C24" s="6">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="D24" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E24" s="10">
+        <v>7.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>200112</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="8">
+        <v>46.58</v>
+      </c>
+      <c r="C25" s="8">
         <v>7.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D25" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="E25" s="9">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>200201</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
+        <v>46.95</v>
+      </c>
+      <c r="C26" s="6">
         <v>7.37</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="D26" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>200202</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="8">
+        <v>47.54</v>
+      </c>
+      <c r="C27" s="8">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="D27" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>200203</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="6">
+        <v>47.87</v>
+      </c>
+      <c r="C28" s="6">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="D28" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>200204</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="8">
+        <v>48.31</v>
+      </c>
+      <c r="C29" s="8">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="D29" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="E29" s="9">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>200205</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
+        <v>48.6</v>
+      </c>
+      <c r="C30" s="6">
         <v>5.84</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="D30" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>200206</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="8">
+        <v>48.81</v>
+      </c>
+      <c r="C31" s="8">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="D31" s="8">
+        <v>0.43</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>200207</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="6">
+        <v>48.82</v>
+      </c>
+      <c r="C32" s="6">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="D32" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>200208</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="8">
+        <v>48.87</v>
+      </c>
+      <c r="C33" s="8">
         <v>5.98</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="D33" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E33" s="9">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>200209</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
+        <v>49.04</v>
+      </c>
+      <c r="C34" s="6">
         <v>5.97</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="D34" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>200210</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="8">
+        <v>49.32</v>
+      </c>
+      <c r="C35" s="8">
         <v>6.37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="D35" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E35" s="9">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>200211</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="C36" s="6">
         <v>7.07</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="D36" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E36" s="10">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>200212</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="8">
+        <v>49.83</v>
+      </c>
+      <c r="C37" s="8">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="D37" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="E37" s="9">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>200301</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="6">
+        <v>50.42</v>
+      </c>
+      <c r="C38" s="6">
         <v>7.39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="D38" s="6">
+        <v>1.17</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>200302</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="8">
+        <v>50.98</v>
+      </c>
+      <c r="C39" s="8">
         <v>7.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="D39" s="8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E39" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>200303</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
+        <v>51.51</v>
+      </c>
+      <c r="C40" s="6">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="D40" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E40" s="10">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>200304</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="C41" s="8">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="D41" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E41" s="9">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>200305</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
+        <v>52.36</v>
+      </c>
+      <c r="C42" s="6">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="D42" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="E42" s="10">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>200306</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="8">
+        <v>52.33</v>
+      </c>
+      <c r="C43" s="8">
         <v>7.21</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="D43" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="E43" s="9">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>200307</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
+        <v>52.26</v>
+      </c>
+      <c r="C44" s="6">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="D44" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E44" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>200308</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="8">
+        <v>52.42</v>
+      </c>
+      <c r="C45" s="8">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="D45" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="E45" s="9">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>200309</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="6">
+        <v>52.53</v>
+      </c>
+      <c r="C46" s="6">
         <v>7.11</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="D46" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E46" s="10">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>200310</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="8">
+        <v>52.56</v>
+      </c>
+      <c r="C47" s="8">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="D47" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>200311</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="6">
+        <v>52.75</v>
+      </c>
+      <c r="C48" s="6">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="D48" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="E48" s="10">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
         <v>200312</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="8">
+        <v>53.07</v>
+      </c>
+      <c r="C49" s="8">
         <v>6.49</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="D49" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="E49" s="9">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>200401</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="6">
+        <v>53.54</v>
+      </c>
+      <c r="C50" s="6">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="D50" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
         <v>200402</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="8">
+        <v>54.18</v>
+      </c>
+      <c r="C51" s="8">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="D51" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>200403</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="6">
+        <v>54.71</v>
+      </c>
+      <c r="C52" s="6">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="D52" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>200404</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="8">
+        <v>54.96</v>
+      </c>
+      <c r="C53" s="8">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="D53" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>200405</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="6">
+        <v>55.17</v>
+      </c>
+      <c r="C54" s="6">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="D54" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>200406</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="8">
+        <v>55.51</v>
+      </c>
+      <c r="C55" s="8">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="D55" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E55" s="9">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>200407</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="6">
+        <v>55.49</v>
+      </c>
+      <c r="C56" s="6">
         <v>6.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="D56" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="E56" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>200408</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="8">
+        <v>55.51</v>
+      </c>
+      <c r="C57" s="8">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="D57" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>200409</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="6">
+        <v>55.67</v>
+      </c>
+      <c r="C58" s="6">
         <v>5.97</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="D58" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E58" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>200410</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B59" s="8">
+        <v>55.66</v>
+      </c>
+      <c r="C59" s="8">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="D59" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="E59" s="9">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>200411</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="6">
+        <v>55.82</v>
+      </c>
+      <c r="C60" s="6">
         <v>5.82</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="D60" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E60" s="10">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>200412</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B61" s="8">
+        <v>55.99</v>
+      </c>
+      <c r="C61" s="8">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="D61" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E61" s="9">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>200501</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="6">
+        <v>56.45</v>
+      </c>
+      <c r="C62" s="6">
         <v>5.43</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="D62" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="E62" s="10">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
         <v>200502</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="8">
+        <v>57.02</v>
+      </c>
+      <c r="C63" s="8">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="D63" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>200503</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="6">
+        <v>57.46</v>
+      </c>
+      <c r="C64" s="6">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="D64" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E64" s="10">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
         <v>200504</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="8">
+        <v>57.72</v>
+      </c>
+      <c r="C65" s="8">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="D65" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E65" s="9">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>200505</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="6">
+        <v>57.95</v>
+      </c>
+      <c r="C66" s="6">
         <v>5.04</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="D66" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="E66" s="10">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
         <v>200506</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="8">
+        <v>58.18</v>
+      </c>
+      <c r="C67" s="8">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="D67" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E67" s="9">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>200507</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="6">
+        <v>58.21</v>
+      </c>
+      <c r="C68" s="6">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="D68" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E68" s="10">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
         <v>200508</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="8">
+        <v>58.21</v>
+      </c>
+      <c r="C69" s="8">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="9">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>200509</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="6">
+        <v>58.46</v>
+      </c>
+      <c r="C70" s="6">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="D70" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E70" s="10">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
         <v>200510</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="8">
+        <v>58.6</v>
+      </c>
+      <c r="C71" s="8">
         <v>5.27</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="D71" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="E71" s="9">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>200511</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="6">
+        <v>58.66</v>
+      </c>
+      <c r="C72" s="6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="D72" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E72" s="10">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
         <v>200512</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="8">
+        <v>58.7</v>
+      </c>
+      <c r="C73" s="8">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="D73" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E73" s="9">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>200601</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="6">
+        <v>59.02</v>
+      </c>
+      <c r="C74" s="6">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="D74" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="E74" s="10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
         <v>200602</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="8">
+        <v>59.41</v>
+      </c>
+      <c r="C75" s="8">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="D75" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="E75" s="9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>200603</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="6">
+        <v>59.83</v>
+      </c>
+      <c r="C76" s="6">
         <v>4.1100000000000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="D76" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
         <v>200604</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="8">
+        <v>60.09</v>
+      </c>
+      <c r="C77" s="8">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="D77" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="E77" s="9">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>200605</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="6">
+        <v>60.29</v>
+      </c>
+      <c r="C78" s="6">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="D78" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E78" s="10">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>200606</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="8">
+        <v>60.48</v>
+      </c>
+      <c r="C79" s="8">
         <v>3.94</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="D79" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>200607</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="6">
+        <v>60.73</v>
+      </c>
+      <c r="C80" s="6">
         <v>4.32</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="D80" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="E80" s="10">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>200608</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="8">
+        <v>60.96</v>
+      </c>
+      <c r="C81" s="8">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="D81" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="E81" s="9">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>200609</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="6">
+        <v>61.14</v>
+      </c>
+      <c r="C82" s="6">
         <v>4.58</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="D82" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E82" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
         <v>200610</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B83" s="8">
+        <v>61.05</v>
+      </c>
+      <c r="C83" s="8">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="D83" s="8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E83" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>200611</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="6">
+        <v>61.19</v>
+      </c>
+      <c r="C84" s="6">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="D84" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E84" s="10">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
         <v>200612</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B85" s="8">
+        <v>61.33</v>
+      </c>
+      <c r="C85" s="8">
         <v>4.4800000000000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="D85" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="E85" s="9">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>200701</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="6">
+        <v>61.8</v>
+      </c>
+      <c r="C86" s="6">
         <v>4.71</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="D86" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E86" s="10">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
         <v>200702</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="8">
+        <v>62.53</v>
+      </c>
+      <c r="C87" s="8">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="D87" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="E87" s="9">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>200703</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="6">
+        <v>63.29</v>
+      </c>
+      <c r="C88" s="6">
         <v>5.78</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="D88" s="6">
+        <v>1.21</v>
+      </c>
+      <c r="E88" s="10">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
         <v>200704</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="8">
+        <v>63.85</v>
+      </c>
+      <c r="C89" s="8">
         <v>6.26</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="D89" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E89" s="9">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>200705</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="6">
+        <v>64.05</v>
+      </c>
+      <c r="C90" s="6">
         <v>6.23</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="D90" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E90" s="10">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
         <v>200706</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="8">
+        <v>64.12</v>
+      </c>
+      <c r="C91" s="8">
         <v>6.03</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="D91" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E91" s="9">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>200707</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="6">
+        <v>64.23</v>
+      </c>
+      <c r="C92" s="6">
         <v>5.77</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="D92" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="E92" s="10">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7">
         <v>200708</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="8">
+        <v>64.14</v>
+      </c>
+      <c r="C93" s="8">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="D93" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="E93" s="9">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>200709</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="6">
+        <v>64.2</v>
+      </c>
+      <c r="C94" s="6">
         <v>5.01</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="D94" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E94" s="10">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
         <v>200710</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="8">
+        <v>64.2</v>
+      </c>
+      <c r="C95" s="8">
         <v>5.16</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="D95" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E95" s="9">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>200711</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="6">
+        <v>64.510000000000005</v>
+      </c>
+      <c r="C96" s="6">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="D96" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="E96" s="10">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
         <v>200712</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="8">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="C97" s="8">
         <v>5.69</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="D97" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="E97" s="9">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>200801</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="6">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="C98" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="D98" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
         <v>200802</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B99" s="8">
+        <v>66.5</v>
+      </c>
+      <c r="C99" s="8">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="D99" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="E99" s="9">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>200803</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="6">
+        <v>67.040000000000006</v>
+      </c>
+      <c r="C100" s="6">
         <v>5.93</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="D100" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="E100" s="10">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
         <v>200804</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B101" s="8">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="C101" s="8">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="D101" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="E101" s="9">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>200805</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="6">
+        <v>68.14</v>
+      </c>
+      <c r="C102" s="6">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="D102" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="E102" s="10">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
         <v>200806</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="8">
+        <v>68.73</v>
+      </c>
+      <c r="C103" s="8">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="D103" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="E103" s="9">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>200807</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="6">
+        <v>69.06</v>
+      </c>
+      <c r="C104" s="6">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+      <c r="D104" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="E104" s="10">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7">
         <v>200808</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="8">
+        <v>69.19</v>
+      </c>
+      <c r="C105" s="8">
         <v>7.87</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="D105" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="E105" s="9">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
         <v>200809</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="6">
+        <v>69.06</v>
+      </c>
+      <c r="C106" s="6">
         <v>7.57</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+      <c r="D106" s="6">
+        <v>-0.19</v>
+      </c>
+      <c r="E106" s="10">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
         <v>200810</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="8">
+        <v>69.3</v>
+      </c>
+      <c r="C107" s="8">
         <v>7.94</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="D107" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="E107" s="9">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
         <v>200811</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="6">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="C108" s="6">
         <v>7.73</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+      <c r="D108" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E108" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
         <v>200812</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="8">
+        <v>69.8</v>
+      </c>
+      <c r="C109" s="8">
         <v>7.67</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="D109" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E109" s="9">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>200901</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="6">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="C110" s="6">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+      <c r="D110" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E110" s="10">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
         <v>200902</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="8">
+        <v>70.8</v>
+      </c>
+      <c r="C111" s="8">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="D111" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="E111" s="9">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>200903</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="6">
+        <v>71.150000000000006</v>
+      </c>
+      <c r="C112" s="6">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+      <c r="D112" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E112" s="10">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
         <v>200904</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="8">
+        <v>71.38</v>
+      </c>
+      <c r="C113" s="8">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="D113" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="E113" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
         <v>200905</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="6">
+        <v>71.39</v>
+      </c>
+      <c r="C114" s="6">
         <v>4.7699999999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+      <c r="D114" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E114" s="10">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
         <v>200906</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="8">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="C115" s="8">
         <v>3.81</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="D115" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="E115" s="9">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>200907</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="6">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="C116" s="6">
         <v>3.28</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+      <c r="D116" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="E116" s="10">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7">
         <v>200908</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="8">
+        <v>71.349999999999994</v>
+      </c>
+      <c r="C117" s="8">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="D117" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E117" s="9">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
         <v>200909</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="6">
+        <v>71.28</v>
+      </c>
+      <c r="C118" s="6">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+      <c r="D118" s="6">
+        <v>-0.11</v>
+      </c>
+      <c r="E118" s="10">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
         <v>200910</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="8">
+        <v>71.19</v>
+      </c>
+      <c r="C119" s="8">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="D119" s="8">
+        <v>-0.13</v>
+      </c>
+      <c r="E119" s="9">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>200911</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="6">
+        <v>71.14</v>
+      </c>
+      <c r="C120" s="6">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="D120" s="6">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E120" s="10">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
         <v>200912</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="8">
+        <v>71.2</v>
+      </c>
+      <c r="C121" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="D121" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E121" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>201001</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="6">
+        <v>71.69</v>
+      </c>
+      <c r="C122" s="6">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+      <c r="D122" s="6">
+        <v>0.69</v>
+      </c>
+      <c r="E122" s="10">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
         <v>201002</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="8">
+        <v>72.28</v>
+      </c>
+      <c r="C123" s="8">
         <v>2.09</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="D123" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="E123" s="9">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
         <v>201003</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="6">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="C124" s="6">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+      <c r="D124" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E124" s="10">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
         <v>201004</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="8">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="C125" s="8">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="D125" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="E125" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>201005</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="6">
+        <v>72.87</v>
+      </c>
+      <c r="C126" s="6">
         <v>2.0699999999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+      <c r="D126" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E126" s="10">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
         <v>201006</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="8">
+        <v>72.95</v>
+      </c>
+      <c r="C127" s="8">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="D127" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E127" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
         <v>201007</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="6">
+        <v>72.92</v>
+      </c>
+      <c r="C128" s="6">
         <v>2.2400000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+      <c r="D128" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="E128" s="10">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
         <v>201008</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B129" s="8">
+        <v>73</v>
+      </c>
+      <c r="C129" s="8">
         <v>2.31</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="D129" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E129" s="9">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <v>201009</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C130" s="6">
         <v>2.2799999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+      <c r="D130" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E130" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
         <v>201010</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B131" s="8">
+        <v>72.84</v>
+      </c>
+      <c r="C131" s="8">
         <v>2.33</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="D131" s="8">
+        <v>-0.09</v>
+      </c>
+      <c r="E131" s="9">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>201011</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="6">
+        <v>72.98</v>
+      </c>
+      <c r="C132" s="6">
         <v>2.59</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+      <c r="D132" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E132" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
         <v>201012</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="8">
+        <v>73.45</v>
+      </c>
+      <c r="C133" s="8">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="D133" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="E133" s="9">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
         <v>201101</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="6">
+        <v>74.12</v>
+      </c>
+      <c r="C134" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+      <c r="D134" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="E134" s="10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
         <v>201102</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="8">
+        <v>74.569999999999993</v>
+      </c>
+      <c r="C135" s="8">
         <v>3.17</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="D135" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
         <v>201103</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="6">
+        <v>74.77</v>
+      </c>
+      <c r="C136" s="6">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+      <c r="D136" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="E136" s="10">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
         <v>201104</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="8">
+        <v>74.86</v>
+      </c>
+      <c r="C137" s="8">
         <v>2.84</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="D137" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
         <v>201105</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="6">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="C138" s="6">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+      <c r="D138" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E138" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
         <v>201106</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="8">
+        <v>75.31</v>
+      </c>
+      <c r="C139" s="8">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="D139" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="E139" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
         <v>201107</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="6">
+        <v>75.42</v>
+      </c>
+      <c r="C140" s="6">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+      <c r="D140" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E140" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
         <v>201108</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="8">
+        <v>75.39</v>
+      </c>
+      <c r="C141" s="8">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="D141" s="8">
+        <v>-0.03</v>
+      </c>
+      <c r="E141" s="9">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>201109</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="6">
+        <v>75.62</v>
+      </c>
+      <c r="C142" s="6">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+      <c r="D142" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="E142" s="10">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7">
         <v>201110</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="8">
+        <v>75.77</v>
+      </c>
+      <c r="C143" s="8">
         <v>4.0199999999999996</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="D143" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="E143" s="9">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
         <v>201111</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="6">
+        <v>75.87</v>
+      </c>
+      <c r="C144" s="6">
         <v>3.96</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+      <c r="D144" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E144" s="10">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7">
         <v>201112</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="8">
+        <v>76.19</v>
+      </c>
+      <c r="C145" s="8">
         <v>3.73</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="D145" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="E145" s="9">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
         <v>201201</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="6">
+        <v>76.75</v>
+      </c>
+      <c r="C146" s="6">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+      <c r="D146" s="6">
+        <v>0.73</v>
+      </c>
+      <c r="E146" s="10">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
         <v>201202</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B147" s="8">
+        <v>77.22</v>
+      </c>
+      <c r="C147" s="8">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="D147" s="8">
+        <v>0.61</v>
+      </c>
+      <c r="E147" s="9">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
         <v>201203</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="6">
+        <v>77.31</v>
+      </c>
+      <c r="C148" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+      <c r="D148" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E148" s="10">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
         <v>201204</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B149" s="8">
+        <v>77.42</v>
+      </c>
+      <c r="C149" s="8">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="D149" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E149" s="9">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
         <v>201205</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="6">
+        <v>77.66</v>
+      </c>
+      <c r="C150" s="6">
         <v>3.44</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+      <c r="D150" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E150" s="10">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
         <v>201206</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B151" s="8">
+        <v>77.72</v>
+      </c>
+      <c r="C151" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="D151" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E151" s="9">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
         <v>201207</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="6">
+        <v>77.7</v>
+      </c>
+      <c r="C152" s="6">
         <v>3.03</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+      <c r="D152" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
         <v>201208</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B153" s="8">
+        <v>77.73</v>
+      </c>
+      <c r="C153" s="8">
         <v>3.11</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="D153" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="E153" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
         <v>201209</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="6">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="C154" s="6">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+      <c r="D154" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E154" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
         <v>201210</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="8">
+        <v>78.08</v>
+      </c>
+      <c r="C155" s="8">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="D155" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E155" s="9">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
         <v>201211</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="6">
+        <v>77.98</v>
+      </c>
+      <c r="C156" s="6">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+      <c r="D156" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E156" s="10">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
         <v>201212</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="8">
+        <v>78.05</v>
+      </c>
+      <c r="C157" s="8">
         <v>2.44</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="D157" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E157" s="9">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
         <v>201301</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="6">
+        <v>78.28</v>
+      </c>
+      <c r="C158" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+      <c r="D158" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E158" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
         <v>201302</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="8">
+        <v>78.63</v>
+      </c>
+      <c r="C159" s="8">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="D159" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E159" s="9">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
         <v>201303</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="6">
+        <v>78.790000000000006</v>
+      </c>
+      <c r="C160" s="6">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+      <c r="D160" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E160" s="10">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
         <v>201304</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B161" s="8">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="C161" s="8">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="D161" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E161" s="9">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
         <v>201305</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="6">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="C162" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+      <c r="D162" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E162" s="10">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
         <v>201306</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B163" s="8">
+        <v>79.39</v>
+      </c>
+      <c r="C163" s="8">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="D163" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="E163" s="9">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
         <v>201307</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="6">
+        <v>79.430000000000007</v>
+      </c>
+      <c r="C164" s="6">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+      <c r="D164" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E164" s="10">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
         <v>201308</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B165" s="8">
+        <v>79.5</v>
+      </c>
+      <c r="C165" s="8">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="D165" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="E165" s="9">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
         <v>201309</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="6">
+        <v>79.73</v>
+      </c>
+      <c r="C166" s="6">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+      <c r="D166" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E166" s="10">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
         <v>201310</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B167" s="8">
+        <v>79.52</v>
+      </c>
+      <c r="C167" s="8">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="D167" s="8">
+        <v>-0.26</v>
+      </c>
+      <c r="E167" s="9">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
         <v>201311</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="6">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="C168" s="6">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+      <c r="D168" s="6">
+        <v>-0.22</v>
+      </c>
+      <c r="E168" s="10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
         <v>201312</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B169" s="8">
+        <v>79.56</v>
+      </c>
+      <c r="C169" s="8">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="D169" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="E169" s="9">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
         <v>201401</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="6">
+        <v>79.95</v>
+      </c>
+      <c r="C170" s="6">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+      <c r="D170" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="E170" s="10">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
         <v>201402</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B171" s="8">
+        <v>80.45</v>
+      </c>
+      <c r="C171" s="8">
         <v>2.3199999999999998</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="D171" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="E171" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
         <v>201403</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="6">
+        <v>80.77</v>
+      </c>
+      <c r="C172" s="6">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+      <c r="D172" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="E172" s="10">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
         <v>201404</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B173" s="8">
+        <v>81.14</v>
+      </c>
+      <c r="C173" s="8">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="D173" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="E173" s="9">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
         <v>201405</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="6">
+        <v>81.53</v>
+      </c>
+      <c r="C174" s="6">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+      <c r="D174" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="E174" s="10">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
         <v>201406</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B175" s="8">
+        <v>81.61</v>
+      </c>
+      <c r="C175" s="8">
         <v>2.79</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="D175" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E175" s="9">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
         <v>201407</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176" s="6">
+        <v>81.73</v>
+      </c>
+      <c r="C176" s="6">
         <v>2.89</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
+      <c r="D176" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E176" s="10">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7">
         <v>201408</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B177" s="8">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C177" s="8">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+      <c r="D177" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E177" s="9">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
         <v>201409</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178" s="6">
+        <v>82.01</v>
+      </c>
+      <c r="C178" s="6">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
+      <c r="D178" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E178" s="10">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
         <v>201410</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B179" s="8">
+        <v>82.14</v>
+      </c>
+      <c r="C179" s="8">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+      <c r="D179" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E179" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
         <v>201411</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180" s="6">
+        <v>82.25</v>
+      </c>
+      <c r="C180" s="6">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+      <c r="D180" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="E180" s="10">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7">
         <v>201412</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B181" s="8">
+        <v>82.47</v>
+      </c>
+      <c r="C181" s="8">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+      <c r="D181" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="E181" s="9">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
         <v>201501</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="6">
+        <v>83</v>
+      </c>
+      <c r="C182" s="6">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+      <c r="D182" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="E182" s="10">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
         <v>201502</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B183" s="8">
+        <v>83.96</v>
+      </c>
+      <c r="C183" s="8">
         <v>4.3600000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+      <c r="D183" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E183" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
         <v>201503</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="6">
+        <v>84.45</v>
+      </c>
+      <c r="C184" s="6">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
+      <c r="D184" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E184" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7">
         <v>201504</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B185" s="8">
+        <v>84.9</v>
+      </c>
+      <c r="C185" s="8">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+      <c r="D185" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="E185" s="9">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
         <v>201505</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="6">
+        <v>85.12</v>
+      </c>
+      <c r="C186" s="6">
         <v>4.41</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
+      <c r="D186" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="E186" s="10">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
         <v>201506</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B187" s="8">
+        <v>85.21</v>
+      </c>
+      <c r="C187" s="8">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="D187" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E187" s="9">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
         <v>201507</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188" s="6">
+        <v>85.37</v>
+      </c>
+      <c r="C188" s="6">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
+      <c r="D188" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E188" s="10">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
         <v>201508</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B189" s="8">
+        <v>85.78</v>
+      </c>
+      <c r="C189" s="8">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="D189" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="E189" s="9">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
         <v>201509</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190" s="6">
+        <v>86.39</v>
+      </c>
+      <c r="C190" s="6">
         <v>5.35</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
+      <c r="D190" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E190" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7">
         <v>201510</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B191" s="8">
+        <v>86.98</v>
+      </c>
+      <c r="C191" s="8">
         <v>5.89</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+      <c r="D191" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="E191" s="9">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
         <v>201511</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192" s="6">
+        <v>87.51</v>
+      </c>
+      <c r="C192" s="6">
         <v>6.39</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
+      <c r="D192" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E192" s="10">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7">
         <v>201512</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B193" s="8">
+        <v>88.05</v>
+      </c>
+      <c r="C193" s="8">
         <v>6.77</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+      <c r="D193" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="E193" s="9">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
         <v>201601</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194" s="6">
+        <v>89.19</v>
+      </c>
+      <c r="C194" s="6">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
+      <c r="D194" s="6">
+        <v>1.29</v>
+      </c>
+      <c r="E194" s="10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
         <v>201602</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B195" s="8">
+        <v>90.33</v>
+      </c>
+      <c r="C195" s="8">
         <v>7.59</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+      <c r="D195" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="E195" s="9">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
         <v>201603</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196" s="6">
+        <v>91.18</v>
+      </c>
+      <c r="C196" s="6">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
+      <c r="D196" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="E196" s="10">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
         <v>201604</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B197" s="8">
+        <v>91.63</v>
+      </c>
+      <c r="C197" s="8">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+      <c r="D197" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E197" s="9">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
         <v>201605</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198" s="6">
+        <v>92.1</v>
+      </c>
+      <c r="C198" s="6">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
+      <c r="D198" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="E198" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
         <v>201606</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B199" s="8">
+        <v>92.54</v>
+      </c>
+      <c r="C199" s="8">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="D199" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="E199" s="9">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
         <v>201607</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="6">
+        <v>93.02</v>
+      </c>
+      <c r="C200" s="6">
         <v>8.9700000000000006</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
+      <c r="D200" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E200" s="10">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
         <v>201608</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B201" s="8">
+        <v>92.73</v>
+      </c>
+      <c r="C201" s="8">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+      <c r="D201" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="E201" s="9">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
         <v>201609</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="6">
+        <v>92.68</v>
+      </c>
+      <c r="C202" s="6">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+      <c r="D202" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="E202" s="10">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
         <v>201610</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B203" s="8">
+        <v>92.62</v>
+      </c>
+      <c r="C203" s="8">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="D203" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="E203" s="9">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
         <v>201611</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="6">
+        <v>92.73</v>
+      </c>
+      <c r="C204" s="6">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+      <c r="D204" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="E204" s="10">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
         <v>201612</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B205" s="8">
+        <v>93.11</v>
+      </c>
+      <c r="C205" s="8">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="D205" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="E205" s="9">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
         <v>201701</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="6">
+        <v>94.07</v>
+      </c>
+      <c r="C206" s="6">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+      <c r="D206" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="E206" s="10">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
         <v>201702</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B207" s="8">
+        <v>95.01</v>
+      </c>
+      <c r="C207" s="8">
         <v>5.18</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+      <c r="D207" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="E207" s="9">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
         <v>201703</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208" s="6">
+        <v>95.46</v>
+      </c>
+      <c r="C208" s="6">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+      <c r="D208" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="E208" s="10">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
         <v>201704</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B209" s="8">
+        <v>95.91</v>
+      </c>
+      <c r="C209" s="8">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+      <c r="D209" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="E209" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
         <v>201705</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="6">
+        <v>96.12</v>
+      </c>
+      <c r="C210" s="6">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+      <c r="D210" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E210" s="10">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
         <v>201706</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B211" s="8">
+        <v>96.23</v>
+      </c>
+      <c r="C211" s="8">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+      <c r="D211" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E211" s="9">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
         <v>201707</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="6">
+        <v>96.18</v>
+      </c>
+      <c r="C212" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+      <c r="D212" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="E212" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="7">
         <v>201708</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B213" s="8">
+        <v>96.32</v>
+      </c>
+      <c r="C213" s="8">
         <v>3.87</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+      <c r="D213" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E213" s="9">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
         <v>201709</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="6">
+        <v>96.36</v>
+      </c>
+      <c r="C214" s="6">
         <v>3.97</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
+      <c r="D214" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E214" s="10">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="7">
         <v>201710</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B215" s="8">
+        <v>96.37</v>
+      </c>
+      <c r="C215" s="8">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+      <c r="D215" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="E215" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
         <v>201711</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="6">
+        <v>96.55</v>
+      </c>
+      <c r="C216" s="6">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="5">
+      <c r="D216" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E216" s="10">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
         <v>201712</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B217" s="8">
+        <v>96.92</v>
+      </c>
+      <c r="C217" s="8">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="D217" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="E217" s="9">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="5">
         <v>201801</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218" s="6">
+        <v>97.53</v>
+      </c>
+      <c r="C218" s="6">
         <v>3.68</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="5">
+      <c r="D218" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="E218" s="10">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="7">
         <v>201802</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B219" s="8">
+        <v>98.22</v>
+      </c>
+      <c r="C219" s="8">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+      <c r="D219" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="E219" s="9">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
         <v>201803</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220" s="6">
+        <v>98.45</v>
+      </c>
+      <c r="C220" s="6">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="5">
+      <c r="D220" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E220" s="10">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="7">
         <v>201804</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B221" s="8">
+        <v>98.91</v>
+      </c>
+      <c r="C221" s="8">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+      <c r="D221" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="E221" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="5">
         <v>201805</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222" s="6">
+        <v>99.16</v>
+      </c>
+      <c r="C222" s="6">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="5">
+      <c r="D222" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E222" s="10">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="7">
         <v>201806</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B223" s="8">
+        <v>99.31</v>
+      </c>
+      <c r="C223" s="8">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+      <c r="D223" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="E223" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="5">
         <v>201807</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="6">
+        <v>99.18</v>
+      </c>
+      <c r="C224" s="6">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="5">
+      <c r="D224" s="6">
+        <v>-0.13</v>
+      </c>
+      <c r="E224" s="10">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="7">
         <v>201808</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B225" s="8">
+        <v>99.3</v>
+      </c>
+      <c r="C225" s="8">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="D225" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E225" s="9">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="5">
         <v>201809</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226" s="6">
+        <v>99.47</v>
+      </c>
+      <c r="C226" s="6">
         <v>3.23</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="5">
+      <c r="D226" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="E226" s="10">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="7">
         <v>201810</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B227" s="8">
+        <v>99.59</v>
+      </c>
+      <c r="C227" s="8">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="D227" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E227" s="9">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="5">
         <v>201811</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228" s="6">
+        <v>99.7</v>
+      </c>
+      <c r="C228" s="6">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="5">
+      <c r="D228" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E228" s="10">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="7">
         <v>201812</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B229" s="8">
+        <v>100</v>
+      </c>
+      <c r="C229" s="8">
         <v>3.18</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="D229" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E229" s="9">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
         <v>201901</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230" s="6">
+        <v>100.6</v>
+      </c>
+      <c r="C230" s="6">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="5">
+      <c r="D230" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E230" s="10">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="7">
         <v>201902</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B231" s="8">
+        <v>101.18</v>
+      </c>
+      <c r="C231" s="8">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="D231" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E231" s="9">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="5">
         <v>201903</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232" s="6">
+        <v>101.62</v>
+      </c>
+      <c r="C232" s="6">
         <v>3.21</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="5">
+      <c r="D232" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E232" s="10">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="7">
         <v>201904</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B233" s="8">
+        <v>102.12</v>
+      </c>
+      <c r="C233" s="8">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="D233" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E233" s="9">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="5">
         <v>201905</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234" s="6">
+        <v>102.44</v>
+      </c>
+      <c r="C234" s="6">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="5">
+      <c r="D234" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="E234" s="10">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="7">
         <v>201906</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B235" s="8">
+        <v>102.71</v>
+      </c>
+      <c r="C235" s="8">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="D235" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="E235" s="9">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="5">
         <v>201907</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236" s="6">
+        <v>102.94</v>
+      </c>
+      <c r="C236" s="6">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="5">
+      <c r="D236" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E236" s="10">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="7">
         <v>201908</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B237" s="8">
+        <v>103.03</v>
+      </c>
+      <c r="C237" s="8">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="D237" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="E237" s="9">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="5">
         <v>201909</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238" s="6">
+        <v>103.26</v>
+      </c>
+      <c r="C238" s="6">
         <v>3.82</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="5">
+      <c r="D238" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E238" s="10">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="7">
         <v>201910</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B239" s="8">
+        <v>103.43</v>
+      </c>
+      <c r="C239" s="8">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="D239" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E239" s="9">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="5">
         <v>201911</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240" s="6">
+        <v>103.54</v>
+      </c>
+      <c r="C240" s="6">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="5">
+      <c r="D240" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E240" s="10">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="7">
         <v>201912</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B241" s="8">
+        <v>103.8</v>
+      </c>
+      <c r="C241" s="8">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="D241" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="E241" s="9">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="5">
         <v>202001</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242" s="6">
+        <v>104.24</v>
+      </c>
+      <c r="C242" s="6">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="5">
+      <c r="D242" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="E242" s="10">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="7">
         <v>202002</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B243" s="8">
+        <v>104.94</v>
+      </c>
+      <c r="C243" s="8">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="D243" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="E243" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="5">
         <v>202003</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244" s="6">
+        <v>105.53</v>
+      </c>
+      <c r="C244" s="6">
         <v>3.86</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="5">
+      <c r="D244" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E244" s="10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="7">
         <v>202004</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B245" s="8">
+        <v>105.7</v>
+      </c>
+      <c r="C245" s="8">
         <v>3.51</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="D245" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="E245" s="9">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="5">
         <v>202005</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246" s="6">
+        <v>105.36</v>
+      </c>
+      <c r="C246" s="6">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="5">
+      <c r="D246" s="6">
+        <v>-0.32</v>
+      </c>
+      <c r="E246" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="7">
         <v>202006</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B247" s="8">
+        <v>104.97</v>
+      </c>
+      <c r="C247" s="8">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="D247" s="8">
+        <v>-0.38</v>
+      </c>
+      <c r="E247" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="5">
         <v>202007</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248" s="6">
+        <v>104.97</v>
+      </c>
+      <c r="C248" s="6">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="5">
+      <c r="D248" s="6">
+        <v>0</v>
+      </c>
+      <c r="E248" s="10">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="7">
         <v>202008</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="8">
+        <v>104.96</v>
+      </c>
+      <c r="C249" s="8">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="D249" s="8">
+        <v>-0.01</v>
+      </c>
+      <c r="E249" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="5">
         <v>202009</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250" s="6">
+        <v>105.29</v>
+      </c>
+      <c r="C250" s="6">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="5">
+      <c r="D250" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E250" s="10">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="7">
         <v>202010</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="8">
+        <v>105.23</v>
+      </c>
+      <c r="C251" s="8">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="D251" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="E251" s="9">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="5">
         <v>202011</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252" s="6">
+        <v>105.08</v>
+      </c>
+      <c r="C252" s="6">
         <v>1.49</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="5">
+      <c r="D252" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="E252" s="10">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="7">
         <v>202012</v>
       </c>
-      <c r="B253" s="6">
+      <c r="B253" s="8">
+        <v>105.48</v>
+      </c>
+      <c r="C253" s="8">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="D253" s="8">
+        <v>0.38</v>
+      </c>
+      <c r="E253" s="9">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="5">
         <v>202101</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254" s="6">
+        <v>105.91</v>
+      </c>
+      <c r="C254" s="6">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="5">
+      <c r="D254" s="6">
+        <v>0.41</v>
+      </c>
+      <c r="E254" s="10">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="7">
         <v>202102</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B255" s="8">
+        <v>106.58</v>
+      </c>
+      <c r="C255" s="8">
         <v>1.56</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="D255" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="E255" s="9">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="5">
         <v>202103</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256" s="6">
+        <v>107.12</v>
+      </c>
+      <c r="C256" s="6">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="5">
+      <c r="D256" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="E256" s="10">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="7">
         <v>202104</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B257" s="8">
+        <v>107.76</v>
+      </c>
+      <c r="C257" s="8">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="D257" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="E257" s="9">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="5">
         <v>202105</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258" s="6">
+        <v>108.84</v>
+      </c>
+      <c r="C258" s="6">
         <v>3.3</v>
       </c>
+      <c r="D258" s="6">
+        <v>1</v>
+      </c>
+      <c r="E258" s="10">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="7">
+        <v>202106</v>
+      </c>
+      <c r="B259" s="8">
+        <v>108.78</v>
+      </c>
+      <c r="C259" s="8">
+        <v>3.63</v>
+      </c>
+      <c r="D259" s="8">
+        <v>-0.05</v>
+      </c>
+      <c r="E259" s="9">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="5">
+        <v>202107</v>
+      </c>
+      <c r="B260" s="6">
+        <v>109.14</v>
+      </c>
+      <c r="C260" s="6">
+        <v>3.97</v>
+      </c>
+      <c r="D260" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="E260" s="10">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="7">
+        <v>202108</v>
+      </c>
+      <c r="B261" s="8">
+        <v>109.62</v>
+      </c>
+      <c r="C261" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D261" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="E261" s="9">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="5">
+        <v>202109</v>
+      </c>
+      <c r="B262" s="6">
+        <v>110.04</v>
+      </c>
+      <c r="C262" s="6">
+        <v>4.51</v>
+      </c>
+      <c r="D262" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="E262" s="10">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="7">
+        <v>202110</v>
+      </c>
+      <c r="B263" s="8">
+        <v>110.06</v>
+      </c>
+      <c r="C263" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="D263" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="E263" s="9">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="5">
+        <v>202111</v>
+      </c>
+      <c r="B264" s="6">
+        <v>110.6</v>
+      </c>
+      <c r="C264" s="6">
+        <v>5.26</v>
+      </c>
+      <c r="D264" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E264" s="10">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="7">
+        <v>202112</v>
+      </c>
+      <c r="B265" s="8">
+        <v>111.41</v>
+      </c>
+      <c r="C265" s="8">
+        <v>5.62</v>
+      </c>
+      <c r="D265" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="E265" s="9">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="5">
+        <v>202201</v>
+      </c>
+      <c r="B266" s="6">
+        <v>113.26</v>
+      </c>
+      <c r="C266" s="6">
+        <v>6.94</v>
+      </c>
+      <c r="D266" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="E266" s="10">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="7">
+        <v>202202</v>
+      </c>
+      <c r="B267" s="8">
+        <v>115.11</v>
+      </c>
+      <c r="C267" s="8">
+        <v>8.01</v>
+      </c>
+      <c r="D267" s="8">
+        <v>1.63</v>
+      </c>
+      <c r="E267" s="9">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="5">
+        <v>202203</v>
+      </c>
+      <c r="B268" s="6">
+        <v>116.26</v>
+      </c>
+      <c r="C268" s="6">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="D268" s="6">
+        <v>1</v>
+      </c>
+      <c r="E268" s="10">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="7">
+        <v>202204</v>
+      </c>
+      <c r="B269" s="8">
+        <v>117.71</v>
+      </c>
+      <c r="C269" s="8">
+        <v>9.23</v>
+      </c>
+      <c r="D269" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="E269" s="9">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="5">
+        <v>202205</v>
+      </c>
+      <c r="B270" s="6">
+        <v>118.7</v>
+      </c>
+      <c r="C270" s="6">
+        <v>9.07</v>
+      </c>
+      <c r="D270" s="6">
+        <v>0.84</v>
+      </c>
+      <c r="E270" s="10">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="7">
+        <v>202206</v>
+      </c>
+      <c r="B271" s="8">
+        <v>119.31</v>
+      </c>
+      <c r="C271" s="8">
+        <v>9.67</v>
+      </c>
+      <c r="D271" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="E271" s="9">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="5">
+        <v>202207</v>
+      </c>
+      <c r="B272" s="6">
+        <v>120.27</v>
+      </c>
+      <c r="C272" s="6">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D272" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="E272" s="10">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="7">
+        <v>202208</v>
+      </c>
+      <c r="B273" s="8">
+        <v>121.5</v>
+      </c>
+      <c r="C273" s="8">
+        <v>10.84</v>
+      </c>
+      <c r="D273" s="8">
+        <v>1.02</v>
+      </c>
+      <c r="E273" s="9">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="5">
+        <v>202209</v>
+      </c>
+      <c r="B274" s="6">
+        <v>122.63</v>
+      </c>
+      <c r="C274" s="6">
+        <v>11.44</v>
+      </c>
+      <c r="D274" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="E274" s="10">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="7">
+        <v>202210</v>
+      </c>
+      <c r="B275" s="8">
+        <v>123.51</v>
+      </c>
+      <c r="C275" s="8">
+        <v>12.22</v>
+      </c>
+      <c r="D275" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E275" s="9">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="5">
+        <v>202211</v>
+      </c>
+      <c r="B276" s="6">
+        <v>124.46</v>
+      </c>
+      <c r="C276" s="6">
+        <v>12.53</v>
+      </c>
+      <c r="D276" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="E276" s="10">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="7">
+        <v>202212</v>
+      </c>
+      <c r="B277" s="8">
+        <v>126.03</v>
+      </c>
+      <c r="C277" s="8">
+        <v>13.12</v>
+      </c>
+      <c r="D277" s="8">
+        <v>1.26</v>
+      </c>
+      <c r="E277" s="9">
+        <v>13.12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="5">
+        <v>202301</v>
+      </c>
+      <c r="B278" s="6">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="C278" s="6">
+        <v>13.25</v>
+      </c>
+      <c r="D278" s="6">
+        <v>1.78</v>
+      </c>
+      <c r="E278" s="10">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="7">
+        <v>202302</v>
+      </c>
+      <c r="B279" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="C279" s="8">
+        <v>13.28</v>
+      </c>
+      <c r="D279" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="E279" s="9">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="5">
+        <v>202303</v>
+      </c>
+      <c r="B280" s="6">
+        <v>131.77000000000001</v>
+      </c>
+      <c r="C280" s="6">
+        <v>13.34</v>
+      </c>
+      <c r="D280" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="E280" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="7">
+        <v>202304</v>
+      </c>
+      <c r="B281" s="8">
+        <v>132.80000000000001</v>
+      </c>
+      <c r="C281" s="8">
+        <v>12.82</v>
+      </c>
+      <c r="D281" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="E281" s="9">
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="5">
+        <v>202305</v>
+      </c>
+      <c r="B282" s="6">
+        <v>133.38</v>
+      </c>
+      <c r="C282" s="6">
+        <v>12.36</v>
+      </c>
+      <c r="D282" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E282" s="10">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="7">
+        <v>202306</v>
+      </c>
+      <c r="B283" s="8">
+        <v>133.78</v>
+      </c>
+      <c r="C283" s="8">
+        <v>12.13</v>
+      </c>
+      <c r="D283" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E283" s="9">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="5">
+        <v>202307</v>
+      </c>
+      <c r="B284" s="6">
+        <v>134.44999999999999</v>
+      </c>
+      <c r="C284" s="6">
+        <v>11.78</v>
+      </c>
+      <c r="D284" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E284" s="10">
+        <v>6.68</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B357">
-    <sortCondition ref="A1:A357"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>